--- a/data/trans_bre/P44-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44-Provincia-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P44-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,12 +609,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -624,12 +624,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,53%</t>
         </is>
       </c>
     </row>
@@ -647,27 +647,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-18,01; 3,69</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-37,06; -18,8</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,51; 25,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,45; -38,1</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,19</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,46%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 1,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,45; 0,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; -8,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,88; 20,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,97; 42,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,62; -28,76</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,47%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 8,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,21; 5,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,61; 5,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,46; 203,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,69; 56,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,66; 16,07</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,08%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,96; 7,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,35; 2,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; 7,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,18; 136,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,28; 22,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,34; 28,84</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,33%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-9,69; 6,93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 5,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-11,2; 4,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-72,75; 254,37</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,02; 34,91</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,61%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,75; 0,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,32; 3,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 2,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,89; 27,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,93; 82,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,12; 11,58</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,96%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; 5,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 0,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,68; 2,52</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,06; 113,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,99; 4,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,61; 7,25</t>
         </is>
       </c>
     </row>
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,65%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,34%</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,47; -1,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; -1,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,23; -1,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,86; -18,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,38; -13,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,88; -4,48</t>
         </is>
       </c>
     </row>
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,3</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,28%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,59%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 0,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; -2,1</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,36; -5,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,97; 3,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,87; -19,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,64; -16,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44-Provincia-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,12 +614,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-29,11</t>
+          <t>-29,17</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-51,53%</t>
+          <t>-51,51%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,02; 11,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,06; -18,8</t>
+          <t>-37,17; -18,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,63; 282,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,45; -38,1</t>
+          <t>-61,67; -38,72</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,19</t>
+          <t>-15,24</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,46%</t>
+          <t>-47,49%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,13; -8,04</t>
+          <t>-23,28; -8,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,62; -28,76</t>
+          <t>-60,61; -28,84</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>-6,49%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 5,08</t>
+          <t>-11,64; 5,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,66; 16,07</t>
+          <t>-27,82; 16,18</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-1,0%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 7,08</t>
+          <t>-6,84; 7,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 7,77</t>
+          <t>-8,03; 7,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 136,88</t>
+          <t>-56,4; 180,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 28,84</t>
+          <t>-21,91; 29,5</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,33%</t>
+          <t>-19,78%</t>
         </is>
       </c>
     </row>
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 4,0</t>
+          <t>-11,06; 4,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-51,02; 34,91</t>
+          <t>-50,82; 35,06</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,45</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-18,61%</t>
+          <t>-18,86%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 2,96</t>
+          <t>-13,12; 2,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,12; 11,58</t>
+          <t>-39,28; 11,2</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,0</t>
+          <t>-14,22</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>-38,48%</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,68; 2,52</t>
+          <t>-34,07; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-65,61; 7,25</t>
+          <t>-78,7; 9,52</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,92</t>
+          <t>-30,43</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,34%</t>
+          <t>-45,04%</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,23; -1,98</t>
+          <t>-51,4; -2,53</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,88; -4,48</t>
+          <t>-61,39; -6,38</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-10,24</t>
+          <t>-19,13</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>-41,9%</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,36; -5,87</t>
+          <t>-40,47; -7,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-42,64; -16,84</t>
+          <t>-65,91; -19,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 11,87</t>
+          <t>-6,01; 11,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,01; 3,69</t>
+          <t>-17,72; 4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,17; -18,59</t>
+          <t>-39,44; -19,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 282,05</t>
+          <t>-51,89; 283,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,51; 25,56</t>
+          <t>-61,76; 27,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-61,67; -38,72</t>
+          <t>-62,55; -38,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 1,85</t>
+          <t>-11,91; 2,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 0,74</t>
+          <t>-6,71; 1,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -8,04</t>
+          <t>-22,41; -7,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,88; 20,07</t>
+          <t>-63,12; 34,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,97; 42,78</t>
+          <t>-81,54; 64,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-60,61; -28,84</t>
+          <t>-60,46; -27,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 8,26</t>
+          <t>-7,0; 7,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 5,52</t>
+          <t>-10,78; 5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 5,12</t>
+          <t>-10,09; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-59,46; 203,8</t>
+          <t>-59,92; 167,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-59,69; 56,13</t>
+          <t>-57,99; 54,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 16,18</t>
+          <t>-25,13; 21,1</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 7,64</t>
+          <t>-6,23; 8,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 2,53</t>
+          <t>-12,61; 2,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 7,67</t>
+          <t>-8,07; 8,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 180,13</t>
+          <t>-53,22; 214,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,28; 22,31</t>
+          <t>-62,68; 24,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 29,5</t>
+          <t>-22,46; 32,05</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 6,93</t>
+          <t>-8,81; 7,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 5,35</t>
+          <t>-5,03; 5,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 4,01</t>
+          <t>-11,63; 4,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-72,75; 254,37</t>
+          <t>-77,37; 185,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,73; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 35,06</t>
+          <t>-51,06; 41,38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 0,96</t>
+          <t>-11,29; 1,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 3,88</t>
+          <t>-9,62; 4,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 2,86</t>
+          <t>-13,26; 2,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,89; 27,36</t>
+          <t>-82,66; 38,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 82,8</t>
+          <t>-74,92; 118,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 11,2</t>
+          <t>-39,66; 9,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,18</t>
+          <t>-5,02; 5,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 0,44</t>
+          <t>-11,65; 0,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-34,07; 3,25</t>
+          <t>-32,35; 3,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-53,06; 113,47</t>
+          <t>-48,99; 110,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-60,99; 4,23</t>
+          <t>-58,73; 7,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-78,7; 9,52</t>
+          <t>-79,6; 10,62</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -1,63</t>
+          <t>-11,34; -1,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,91; -1,2</t>
+          <t>-8,8; -1,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,4; -2,53</t>
+          <t>-53,47; -2,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,86; -18,28</t>
+          <t>-80,08; -20,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-80,38; -13,73</t>
+          <t>-78,4; -13,82</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,39; -6,38</t>
+          <t>-61,23; -7,23</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,19</t>
+          <t>-4,74; 0,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,1</t>
+          <t>-6,76; -2,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-40,47; -7,06</t>
+          <t>-41,06; -8,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,97; 3,91</t>
+          <t>-41,63; 1,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-50,87; -19,48</t>
+          <t>-50,88; -19,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-65,91; -19,75</t>
+          <t>-66,99; -22,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P44-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P44-Provincia-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
